--- a/results/yq_test/qft_cz/Rb2Re4/cz_2q_qft_42.qasm_rb2_archsize7_mini_dis.xlsx
+++ b/results/yq_test/qft_cz/Rb2Re4/cz_2q_qft_42.qasm_rb2_archsize7_mini_dis.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N1492"/>
+  <dimension ref="A1:N1493"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8.655287981033325</v>
+        <v>0.001849889755249023</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.05619597434997559</v>
+        <v>0.0008037090301513672</v>
       </c>
     </row>
     <row r="7">
@@ -497,13 +497,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.08963203430175781</v>
+        <v>0.1369938850402832</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[(4, 0), (3, 0), (4, 1), (5, 2), (3, 3), (6, 3), (4, 2), (5, 1), (6, 4), (5, 5), (5, 6), (4, 4), (3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (2, 6), (2, 0), (2, 2), (4, 5), (1, 4), (3, 4), (2, 5), (0, 4), (0, 6), (5, 4), (3, 2), (6, 6), (4, 6), (5, 3), (6, 5), (0, 3), (0, 2), (0, 0), (2, 1), (1, 2), (1, 0), (1, 1), (0, 1)]</t>
+          <t>[[4, 0], [3, 0], [4, 1], [5, 2], [3, 3], [6, 3], [4, 2], [5, 1], [6, 4], [5, 5], [5, 6], [4, 4], [3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [2, 6], [2, 0], [2, 2], [4, 5], [1, 4], [3, 4], [2, 5], [0, 4], [0, 6], [5, 4], [3, 2], [6, 6], [4, 6], [5, 3], [6, 5], [0, 3], [0, 2], [0, 0], [2, 1], [1, 2], [1, 0], [1, 1], [0, 1]]</t>
         </is>
       </c>
     </row>
@@ -885,7 +885,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>[(4, 0), (5, 2), (4, 1), (6, 3), (3, 3), (5, 5), (4, 2), (5, 1), (6, 4), (4, 4), (5, 6), (3, 5), (3, 6), (1, 5), (2, 4), (1, 4), (0, 5), (0, 4), (2, 3), (2, 6), (0, 0), (2, 5), (4, 5), (3, 4), (4, 3), (4, 6), (5, 3), (0, 6), (5, 4), (3, 2), (3, 0), (2, 0), (2, 1), (1, 1), (1, 2), (0, 2), (0, 3), (1, 3), (0, 1), (2, 2), (1, 0), (3, 1)]</t>
+          <t>[[4, 0], [5, 2], [4, 1], [6, 3], [3, 3], [5, 5], [4, 2], [5, 1], [6, 4], [4, 4], [5, 6], [3, 5], [3, 6], [1, 5], [2, 4], [1, 4], [0, 5], [0, 4], [2, 3], [2, 6], [0, 0], [2, 5], [4, 5], [3, 4], [4, 3], [4, 6], [5, 3], [0, 6], [5, 4], [3, 2], [3, 0], [2, 0], [2, 1], [1, 1], [1, 2], [0, 2], [0, 3], [1, 3], [0, 1], [2, 2], [1, 0], [3, 1]]</t>
         </is>
       </c>
     </row>
@@ -1426,7 +1426,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>[(4, 0), (5, 2), (4, 1), (6, 3), (3, 3), (5, 5), (4, 2), (5, 1), (6, 4), (4, 4), (5, 6), (3, 5), (2, 3), (2, 2), (2, 0), (3, 4), (2, 1), (3, 1), (3, 2), (4, 6), (3, 0), (4, 5), (4, 3), (5, 4), (2, 4), (3, 6), (2, 5), (0, 6), (1, 5), (1, 4), (0, 3), (0, 2), (1, 1), (1, 0), (0, 0), (0, 1), (1, 2), (1, 3), (0, 4), (0, 5), (1, 6), (2, 6)]</t>
+          <t>[[4, 0], [5, 2], [4, 1], [6, 3], [3, 3], [5, 5], [4, 2], [5, 1], [6, 4], [4, 4], [5, 6], [3, 5], [2, 3], [2, 2], [2, 0], [3, 4], [2, 1], [3, 1], [3, 2], [4, 6], [3, 0], [4, 5], [4, 3], [5, 4], [2, 4], [3, 6], [2, 5], [0, 6], [1, 5], [1, 4], [0, 3], [0, 2], [1, 1], [1, 0], [0, 0], [0, 1], [1, 2], [1, 3], [0, 4], [0, 5], [1, 6], [2, 6]]</t>
         </is>
       </c>
     </row>
@@ -2164,7 +2164,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>[(4, 0), (5, 2), (4, 1), (6, 3), (4, 2), (1, 5), (6, 4), (5, 1), (3, 6), (2, 0), (0, 5), (1, 4), (0, 4), (3, 1), (0, 3), (2, 5), (3, 0), (5, 0), (5, 3), (2, 6), (5, 6), (5, 5), (4, 5), (4, 4), (3, 4), (3, 3), (2, 3), (2, 2), (1, 2), (1, 1), (0, 1), (0, 0), (1, 0), (0, 2), (2, 1), (1, 3), (3, 2), (2, 4), (4, 3), (3, 5), (5, 4), (4, 6)]</t>
+          <t>[[4, 0], [5, 2], [4, 1], [6, 3], [4, 2], [1, 5], [6, 4], [5, 1], [3, 6], [2, 0], [0, 5], [1, 4], [0, 4], [3, 1], [0, 3], [2, 5], [3, 0], [5, 0], [5, 3], [2, 6], [5, 6], [5, 5], [4, 5], [4, 4], [3, 4], [3, 3], [2, 3], [2, 2], [1, 2], [1, 1], [0, 1], [0, 0], [1, 0], [0, 2], [2, 1], [1, 3], [3, 2], [2, 4], [4, 3], [3, 5], [5, 4], [4, 6]]</t>
         </is>
       </c>
     </row>
@@ -3027,7 +3027,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>[(4, 0), (5, 2), (4, 1), (6, 3), (4, 2), (0, 6), (6, 4), (5, 1), (1, 6), (3, 0), (3, 2), (3, 3), (3, 1), (4, 3), (5, 3), (5, 6), (5, 5), (4, 4), (3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (2, 6), (3, 4), (4, 5), (4, 6)]</t>
+          <t>[[4, 0], [5, 2], [4, 1], [6, 3], [4, 2], [0, 6], [6, 4], [5, 1], [1, 6], [3, 0], [3, 2], [3, 3], [3, 1], [4, 3], [5, 3], [5, 6], [5, 5], [4, 4], [3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [2, 6], [3, 4], [4, 5], [4, 6]]</t>
         </is>
       </c>
     </row>
@@ -3868,7 +3868,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>[(4, 0), (5, 2), (4, 1), (3, 0), (4, 2), (0, 6), (5, 3), (5, 1), (1, 6), (3, 1), (3, 2), (6, 4), (6, 3), (5, 6), (5, 5), (4, 4), (3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (2, 6), (3, 4), (4, 5), (4, 6), (5, 4), (6, 5)]</t>
+          <t>[[4, 0], [5, 2], [4, 1], [3, 0], [4, 2], [0, 6], [5, 3], [5, 1], [1, 6], [3, 1], [3, 2], [6, 4], [6, 3], [5, 6], [5, 5], [4, 4], [3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [2, 6], [3, 4], [4, 5], [4, 6], [5, 4], [6, 5]]</t>
         </is>
       </c>
     </row>
@@ -4805,7 +4805,7 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>[(4, 0), (5, 2), (4, 1), (3, 0), (3, 3), (0, 6), (4, 3), (5, 1), (4, 2), (6, 4), (6, 3), (5, 5), (5, 6), (4, 4), (3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (2, 6), (3, 4), (4, 5), (4, 6), (5, 4), (6, 5), (5, 3), (6, 2)]</t>
+          <t>[[4, 0], [5, 2], [4, 1], [3, 0], [3, 3], [0, 6], [4, 3], [5, 1], [4, 2], [6, 4], [6, 3], [5, 5], [5, 6], [4, 4], [3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [2, 6], [3, 4], [4, 5], [4, 6], [5, 4], [6, 5], [5, 3], [6, 2]]</t>
         </is>
       </c>
     </row>
@@ -5851,7 +5851,7 @@
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>[(4, 0), (4, 1), (0, 6), (3, 0), (3, 3), (5, 2), (4, 2), (6, 3), (6, 4), (5, 5), (5, 6), (4, 4), (3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (2, 6), (3, 4), (4, 5), (4, 6), (5, 4), (6, 5), (5, 3), (6, 2), (4, 3), (3, 2)]</t>
+          <t>[[4, 0], [4, 1], [0, 6], [3, 0], [3, 3], [5, 2], [4, 2], [6, 3], [6, 4], [5, 5], [5, 6], [4, 4], [3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [2, 6], [3, 4], [4, 5], [4, 6], [5, 4], [6, 5], [5, 3], [6, 2], [4, 3], [3, 2]]</t>
         </is>
       </c>
     </row>
@@ -7015,7 +7015,7 @@
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>[(4, 0), (3, 0), (4, 1), (5, 2), (4, 2), (6, 3), (6, 4), (5, 5), (5, 6), (4, 4), (3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (2, 6), (3, 4), (4, 5), (4, 6), (5, 4), (6, 5), (5, 3), (6, 2), (4, 3), (3, 2), (5, 0), (3, 1)]</t>
+          <t>[[4, 0], [3, 0], [4, 1], [5, 2], [4, 2], [6, 3], [6, 4], [5, 5], [5, 6], [4, 4], [3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [2, 6], [3, 4], [4, 5], [4, 6], [5, 4], [6, 5], [5, 3], [6, 2], [4, 3], [3, 2], [5, 0], [3, 1]]</t>
         </is>
       </c>
     </row>
@@ -8249,7 +8249,7 @@
     <row r="771">
       <c r="A771" t="inlineStr">
         <is>
-          <t>[(4, 1), (5, 2), (4, 2), (6, 3), (6, 4), (5, 5), (5, 6), (4, 4), (3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (2, 6), (3, 4), (4, 5), (4, 6), (5, 4), (6, 5), (5, 3), (6, 2), (4, 3), (3, 2), (5, 0), (3, 0), (4, 0), (3, 1)]</t>
+          <t>[[4, 1], [5, 2], [4, 2], [6, 3], [6, 4], [5, 5], [5, 6], [4, 4], [3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [2, 6], [3, 4], [4, 5], [4, 6], [5, 4], [6, 5], [5, 3], [6, 2], [4, 3], [3, 2], [5, 0], [3, 0], [4, 0], [3, 1]]</t>
         </is>
       </c>
     </row>
@@ -9431,7 +9431,7 @@
     <row r="877">
       <c r="A877" t="inlineStr">
         <is>
-          <t>[(4, 2), (6, 3), (6, 4), (5, 5), (5, 6), (4, 4), (3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (2, 6), (3, 4), (4, 5), (4, 6), (5, 4), (6, 5), (5, 3), (6, 2), (4, 3), (3, 1), (3, 2), (3, 0), (5, 0), (4, 0), (4, 1), (3, 3)]</t>
+          <t>[[4, 2], [6, 3], [6, 4], [5, 5], [5, 6], [4, 4], [3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [2, 6], [3, 4], [4, 5], [4, 6], [5, 4], [6, 5], [5, 3], [6, 2], [4, 3], [3, 1], [3, 2], [3, 0], [5, 0], [4, 0], [4, 1], [3, 3]]</t>
         </is>
       </c>
     </row>
@@ -10472,7 +10472,7 @@
     <row r="970">
       <c r="A970" t="inlineStr">
         <is>
-          <t>[(6, 4), (5, 6), (5, 5), (4, 4), (3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (2, 6), (3, 4), (4, 5), (4, 6), (5, 4), (6, 5), (6, 6), (5, 3), (3, 3), (6, 2), (4, 3), (3, 1), (3, 2), (3, 0), (5, 0), (4, 0), (4, 1), (4, 2)]</t>
+          <t>[[6, 4], [5, 6], [5, 5], [4, 4], [3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [2, 6], [3, 4], [4, 5], [4, 6], [5, 4], [6, 5], [6, 6], [5, 3], [3, 3], [6, 2], [4, 3], [3, 1], [3, 2], [3, 0], [5, 0], [4, 0], [4, 1], [4, 2]]</t>
         </is>
       </c>
     </row>
@@ -11436,7 +11436,7 @@
     <row r="1057">
       <c r="A1057" t="inlineStr">
         <is>
-          <t>[(5, 5), (4, 4), (3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (2, 6), (3, 4), (4, 5), (4, 6), (5, 3), (5, 4), (4, 3), (6, 5), (6, 6), (3, 3), (3, 1), (6, 2), (0, 6), (3, 0), (3, 2), (4, 0), (5, 0), (4, 1), (4, 2), (5, 1)]</t>
+          <t>[[5, 5], [4, 4], [3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [2, 6], [3, 4], [4, 5], [4, 6], [5, 3], [5, 4], [4, 3], [6, 5], [6, 6], [3, 3], [3, 1], [6, 2], [0, 6], [3, 0], [3, 2], [4, 0], [5, 0], [4, 1], [4, 2], [5, 1]]</t>
         </is>
       </c>
     </row>
@@ -12250,7 +12250,7 @@
     <row r="1139">
       <c r="A1139" t="inlineStr">
         <is>
-          <t>[(3, 6), (2, 5), (0, 6), (2, 4), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (1, 5), (2, 6), (1, 6), (3, 4), (3, 5), (4, 5), (4, 6), (5, 3), (5, 4), (4, 3), (6, 5), (6, 6), (3, 3), (3, 1), (6, 2), (4, 4), (3, 0), (3, 2), (4, 0), (5, 0), (4, 1), (4, 2), (5, 1)]</t>
+          <t>[[3, 6], [2, 5], [0, 6], [2, 4], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [1, 5], [2, 6], [1, 6], [3, 4], [3, 5], [4, 5], [4, 6], [5, 3], [5, 4], [4, 3], [6, 5], [6, 6], [3, 3], [3, 1], [6, 2], [4, 4], [3, 0], [3, 2], [4, 0], [5, 0], [4, 1], [4, 2], [5, 1]]</t>
         </is>
       </c>
     </row>
@@ -13013,7 +13013,7 @@
     <row r="1218">
       <c r="A1218" t="inlineStr">
         <is>
-          <t>[(0, 6), (2, 4), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (1, 5), (2, 6), (1, 6), (3, 0), (3, 1), (2, 5), (3, 6), (3, 5), (4, 6), (5, 3), (5, 4), (4, 3), (6, 5), (6, 6), (3, 3), (3, 2), (6, 2), (4, 4), (4, 0), (3, 4), (4, 1), (5, 0), (4, 2), (5, 1), (5, 2)]</t>
+          <t>[[0, 6], [2, 4], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [1, 5], [2, 6], [1, 6], [3, 0], [3, 1], [2, 5], [3, 6], [3, 5], [4, 6], [5, 3], [5, 4], [4, 3], [6, 5], [6, 6], [3, 3], [3, 2], [6, 2], [4, 4], [4, 0], [3, 4], [4, 1], [5, 0], [4, 2], [5, 1], [5, 2]]</t>
         </is>
       </c>
     </row>
@@ -13777,7 +13777,7 @@
     <row r="1295">
       <c r="A1295" t="inlineStr">
         <is>
-          <t>[(2, 5), (1, 5), (0, 4), (0, 3), (1, 2), (1, 1), (0, 0), (1, 0), (0, 1), (0, 2), (1, 3), (1, 4), (0, 5), (2, 4), (1, 6), (2, 3), (3, 1), (2, 0), (3, 5), (3, 6), (4, 0), (3, 3), (3, 4), (4, 5), (3, 0), (3, 2), (2, 1), (2, 6), (2, 2), (0, 6), (6, 6), (4, 2), (4, 1), (6, 2), (4, 4), (5, 0), (4, 3), (5, 1), (5, 2), (5, 3), (6, 0), (5, 4)]</t>
+          <t>[[2, 5], [1, 5], [0, 4], [0, 3], [1, 2], [1, 1], [0, 0], [1, 0], [0, 1], [0, 2], [1, 3], [1, 4], [0, 5], [2, 4], [1, 6], [2, 3], [3, 1], [2, 0], [3, 5], [3, 6], [4, 0], [3, 3], [3, 4], [4, 5], [3, 0], [3, 2], [2, 1], [2, 6], [2, 2], [0, 6], [6, 6], [4, 2], [4, 1], [6, 2], [4, 4], [5, 0], [4, 3], [5, 1], [5, 2], [5, 3], [6, 0], [5, 4]]</t>
         </is>
       </c>
     </row>
@@ -14530,7 +14530,7 @@
     <row r="1379">
       <c r="A1379" t="inlineStr">
         <is>
-          <t>[(2, 1), (1, 1), (1, 2), (0, 2), (0, 3), (1, 3), (0, 1), (2, 2), (1, 0), (2, 0), (2, 3), (0, 6), (0, 4), (2, 5), (1, 6), (3, 2), (3, 1), (4, 0), (3, 5), (3, 6), (4, 1), (3, 3), (3, 4), (4, 5), (5, 0), (4, 2), (4, 3), (2, 6), (4, 4), (0, 5), (1, 5), (1, 4), (0, 0), (3, 0), (2, 4), (5, 1), (5, 2), (5, 3), (5, 4), (5, 5), (6, 0), (5, 6)]</t>
+          <t>[[2, 1], [1, 1], [1, 2], [0, 2], [0, 3], [1, 3], [0, 1], [2, 2], [1, 0], [2, 0], [2, 3], [0, 6], [0, 4], [2, 5], [1, 6], [3, 2], [3, 1], [4, 0], [3, 5], [3, 6], [4, 1], [3, 3], [3, 4], [4, 5], [5, 0], [4, 2], [4, 3], [2, 6], [4, 4], [0, 5], [1, 5], [1, 4], [0, 0], [3, 0], [2, 4], [5, 1], [5, 2], [5, 3], [5, 4], [5, 5], [6, 0], [5, 6]]</t>
         </is>
       </c>
     </row>
@@ -15120,7 +15120,7 @@
     <row r="1449">
       <c r="A1449" t="inlineStr">
         <is>
-          <t>[(1, 1), (0, 2), (0, 1), (0, 0), (1, 2), (1, 0), (1, 4), (0, 5), (3, 0), (3, 1), (2, 3), (1, 6), (2, 4), (2, 5), (2, 6), (3, 2), (3, 3), (4, 0), (3, 5), (3, 6), (4, 1), (3, 4), (4, 3), (4, 5), (5, 0), (4, 2), (4, 4), (4, 6), (5, 3), (5, 4), (5, 5), (5, 2), (5, 1), (6, 0), (0, 6), (1, 5), (2, 1), (1, 3), (2, 0), (0, 3), (0, 4), (2, 2)]</t>
+          <t>[[1, 1], [0, 2], [0, 1], [0, 0], [1, 2], [1, 0], [1, 4], [0, 5], [3, 0], [3, 1], [2, 3], [1, 6], [2, 4], [2, 5], [2, 6], [3, 2], [3, 3], [4, 0], [3, 5], [3, 6], [4, 1], [3, 4], [4, 3], [4, 5], [5, 0], [4, 2], [4, 4], [4, 6], [5, 3], [5, 4], [5, 5], [5, 2], [5, 1], [6, 0], [0, 6], [1, 5], [2, 1], [1, 3], [2, 0], [0, 3], [0, 4], [2, 2]]</t>
         </is>
       </c>
     </row>
@@ -15419,110 +15419,120 @@
     <row r="1488">
       <c r="A1488" t="inlineStr">
         <is>
-          <t>Movement times</t>
+          <t>move_fidelity</t>
         </is>
       </c>
       <c r="B1488" t="n">
-        <v>243</v>
+        <v>0.9846097147112011</v>
       </c>
     </row>
     <row r="1489">
       <c r="A1489" t="inlineStr">
         <is>
-          <t>parallel times</t>
+          <t>Movement times</t>
         </is>
       </c>
       <c r="B1489" t="n">
-        <v>1217</v>
+        <v>243</v>
       </c>
     </row>
     <row r="1490">
       <c r="A1490" t="inlineStr">
         <is>
-          <t>partitions</t>
+          <t>parallel times</t>
         </is>
       </c>
       <c r="B1490" t="n">
-        <v>18</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="1491">
       <c r="A1491" t="inlineStr">
         <is>
-          <t>total time:</t>
+          <t>partitions</t>
         </is>
       </c>
       <c r="B1491" t="n">
-        <v>9.029899835586548</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1492">
       <c r="A1492" t="inlineStr">
         <is>
+          <t>total time:</t>
+        </is>
+      </c>
+      <c r="B1492" t="n">
+        <v>0.3508641719818115</v>
+      </c>
+    </row>
+    <row r="1493">
+      <c r="A1493" t="inlineStr">
+        <is>
           <t>T_cz</t>
         </is>
       </c>
-      <c r="B1492" t="inlineStr">
+      <c r="B1493" t="inlineStr">
         <is>
           <t>0.2</t>
         </is>
       </c>
-      <c r="C1492" t="inlineStr">
+      <c r="C1493" t="inlineStr">
         <is>
           <t>T_eff</t>
         </is>
       </c>
-      <c r="D1492" t="inlineStr">
+      <c r="D1493" t="inlineStr">
         <is>
           <t>1500000.0</t>
         </is>
       </c>
-      <c r="E1492" t="inlineStr">
+      <c r="E1493" t="inlineStr">
         <is>
           <t>T_trans</t>
         </is>
       </c>
-      <c r="F1492" t="inlineStr">
+      <c r="F1493" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G1492" t="inlineStr">
+      <c r="G1493" t="inlineStr">
         <is>
           <t>AOD_width</t>
         </is>
       </c>
-      <c r="H1492" t="inlineStr">
+      <c r="H1493" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="I1492" t="inlineStr">
+      <c r="I1493" t="inlineStr">
         <is>
           <t>AOD_height</t>
         </is>
       </c>
-      <c r="J1492" t="inlineStr">
+      <c r="J1493" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="K1492" t="inlineStr">
+      <c r="K1493" t="inlineStr">
         <is>
           <t>Move_speed</t>
         </is>
       </c>
-      <c r="L1492" t="inlineStr">
+      <c r="L1493" t="inlineStr">
         <is>
           <t>0.55</t>
         </is>
       </c>
-      <c r="M1492" t="inlineStr">
+      <c r="M1493" t="inlineStr">
         <is>
           <t>F_cz</t>
         </is>
       </c>
-      <c r="N1492" t="inlineStr">
+      <c r="N1493" t="inlineStr">
         <is>
           <t>0.995</t>
         </is>
